--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Pembelajaran Mesin\Modul 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DBC36B-214C-45B4-B8EE-5A63C1C102F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE8E52C-D06B-48D0-B945-272A2489DC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7635" xr2:uid="{BBF8580B-958C-4816-88E6-5EA75AC9F94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Job Desk</t>
   </si>
@@ -45,12 +54,45 @@
     <t>Status</t>
   </si>
   <si>
+    <t xml:space="preserve">Finding Dataset </t>
+  </si>
+  <si>
+    <t>19/10/2021</t>
+  </si>
+  <si>
+    <t>Eka Yunia &amp; Yulisha Dian</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Preprocessing Data</t>
   </si>
   <si>
+    <t>23/10/2021</t>
+  </si>
+  <si>
+    <t>26/10/2021</t>
+  </si>
+  <si>
+    <t>Yulisha Dian</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>27/10/2021</t>
+  </si>
+  <si>
+    <t>On Going</t>
+  </si>
+  <si>
     <t>Modelling</t>
   </si>
   <si>
+    <t xml:space="preserve">Eka Yunia </t>
+  </si>
+  <si>
     <t>Model Inference</t>
   </si>
   <si>
@@ -60,38 +102,14 @@
     <t>Prediksi Data</t>
   </si>
   <si>
-    <t>Training</t>
-  </si>
-  <si>
     <t>Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finding Dataset </t>
-  </si>
-  <si>
-    <t>19/10/2021</t>
-  </si>
-  <si>
-    <t>23/10/2021</t>
-  </si>
-  <si>
-    <t>27/10/2021</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>26/10/2021</t>
-  </si>
-  <si>
-    <t>On Going</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,18 +503,18 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -505,7 +523,7 @@
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -522,96 +540,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>44540</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24617"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Pembelajaran Mesin\Modul 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASSIFICATION IMAGE\Image-Classification_270-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE8E52C-D06B-48D0-B945-272A2489DC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166557B-B049-40AD-A4A2-CE5DCFEAD1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7635" xr2:uid="{BBF8580B-958C-4816-88E6-5EA75AC9F94F}"/>
+    <workbookView xWindow="1950" yWindow="1800" windowWidth="10080" windowHeight="9720" xr2:uid="{BBF8580B-958C-4816-88E6-5EA75AC9F94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Job Desk</t>
   </si>
@@ -60,56 +51,98 @@
     <t>19/10/2021</t>
   </si>
   <si>
-    <t>Eka Yunia &amp; Yulisha Dian</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Preprocessing Data</t>
-  </si>
-  <si>
     <t>23/10/2021</t>
   </si>
   <si>
     <t>26/10/2021</t>
   </si>
   <si>
-    <t>Yulisha Dian</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
     <t>27/10/2021</t>
   </si>
   <si>
     <t>On Going</t>
   </si>
   <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eka Yunia </t>
-  </si>
-  <si>
-    <t>Model Inference</t>
-  </si>
-  <si>
-    <t>Model Evaluation</t>
-  </si>
-  <si>
-    <t>Prediksi Data</t>
-  </si>
-  <si>
-    <t>Testing</t>
+    <t>Eka Yunia Primastuti</t>
+  </si>
+  <si>
+    <t>Yulisha Dian Cahyaningrum</t>
+  </si>
+  <si>
+    <t>Preprocessing Data Modul 1 - Part 1</t>
+  </si>
+  <si>
+    <t>Modelling Data menggunakan CNN Modul 1 - Part 1</t>
+  </si>
+  <si>
+    <t>Evaluasi model CNN 1</t>
+  </si>
+  <si>
+    <t>Preprocessing Data Modul 1 - Part 2</t>
+  </si>
+  <si>
+    <t>Modelling Data menggunakan CNN Modul 1 - Part 2</t>
+  </si>
+  <si>
+    <t>Evaluasi model CNN 2</t>
+  </si>
+  <si>
+    <t>Analisis Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepocessing Data Modul 2 </t>
+  </si>
+  <si>
+    <t>Collaborasi</t>
+  </si>
+  <si>
+    <t>Modelling Data Maxpool Oversampling Modul 2 - Part 1</t>
+  </si>
+  <si>
+    <t>Modelling Data  Average Oversampling Modul 2 - Part 2</t>
+  </si>
+  <si>
+    <t>Prepocessing Data Modul 3</t>
+  </si>
+  <si>
+    <t>Modelling Data Maxpool HParams Modul 3 - Part 1</t>
+  </si>
+  <si>
+    <t>Modelling Data Average HParams Modul 3 - Part 2</t>
+  </si>
+  <si>
+    <t>Modelling menggunakan VGG19</t>
+  </si>
+  <si>
+    <t>Modelling menggunakan InceptionV3</t>
+  </si>
+  <si>
+    <t>Development Front-End-Web</t>
+  </si>
+  <si>
+    <t>Configurasi Flask</t>
+  </si>
+  <si>
+    <t>Development Back-End-Web</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Waiting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +159,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +178,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,21 +226,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,149 +590,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22733857-876B-464C-B464-D7711979BCD6}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>44540</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4">
+        <v>44484</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44545</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="8">
+        <v>44494</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44494</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44494</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44494</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44494</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44494</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B11" s="8">
+        <v>44507</v>
+      </c>
+      <c r="C11" s="8">
+        <v>44507</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44507</v>
+      </c>
+      <c r="C12" s="8">
+        <v>44507</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44508</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44508</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44522</v>
+      </c>
+      <c r="C14" s="8">
+        <v>44522</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44522</v>
+      </c>
+      <c r="C15" s="8">
+        <v>44524</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44524</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44526</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8">
+        <v>44535</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44537</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44537</v>
+      </c>
+      <c r="C18" s="8">
+        <v>44539</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8">
+        <v>44549</v>
+      </c>
+      <c r="C19" s="8">
+        <v>44551</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44551</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44553</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44560</v>
+      </c>
+      <c r="C21" s="8">
+        <v>44531</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="8">
+        <v>44560</v>
+      </c>
+      <c r="C22" s="8">
+        <v>44531</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44560</v>
+      </c>
+      <c r="C23" s="8">
+        <v>44531</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="8">
+        <v>44560</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44531</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLASSIFICATION IMAGE\Image-Classification_270-268\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166557B-B049-40AD-A4A2-CE5DCFEAD1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EACBC0B-E436-4AED-B920-6759CC5A6B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1800" windowWidth="10080" windowHeight="9720" xr2:uid="{BBF8580B-958C-4816-88E6-5EA75AC9F94F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BBF8580B-958C-4816-88E6-5EA75AC9F94F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22733857-876B-464C-B464-D7711979BCD6}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
